--- a/biology/Botanique/Hilaria_(genre)/Hilaria_(genre).xlsx
+++ b/biology/Botanique/Hilaria_(genre)/Hilaria_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hilaria est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (8 août 2020)[2], ITIS      (8 août 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (8 août 2020), ITIS      (8 août 2020) :
 Hilaria annua Reeder &amp; C. Reeder
 Hilaria belangeri (Steud.) Nash
 Hilaria cenchroides Kunth
@@ -524,7 +538,7 @@
 Hilaria rigida (Thurb.) Benth. ex Scribn.
 Hilaria semplei Sohns
 Hilaria swallenii Cory
-Selon World Checklist of Selected Plant Families (WCSP)  (8 août 2020)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (8 août 2020) :
 Hilaria annua Reeder &amp; C.Reeder (1988)
 Hilaria belangeri (Steud.) Nash (1912)
 variété Hilaria belangeri var. belangeri
@@ -537,7 +551,7 @@
 Hilaria rigida (Thurb.) Benth. ex Scribn. (1882)
 Hilaria semplei Sohns (1956)
 Hilaria swallenii Cory (1948)
-Selon Tropicos                                           (8 août 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 août 2020) (Attention liste brute contenant possiblement des synonymes) :
 Hilaria annua Reeder &amp; C. Reeder
 Hilaria belangeri (Steud.) Nash
 Hilaria cenchroides Kunth
